--- a/Assets/Resources/Excel/MechanismConfig.xlsx
+++ b/Assets/Resources/Excel/MechanismConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -53,163 +53,40 @@
     <t>Int[]</t>
   </si>
   <si>
-    <t>StartStar</t>
-  </si>
-  <si>
-    <t>StartPos</t>
+    <t>Fog</t>
+  </si>
+  <si>
+    <t>FOG</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>LockNet</t>
-  </si>
-  <si>
-    <t>Lock</t>
-  </si>
-  <si>
-    <t>BlackCloud</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
-    <t>HalfBlackCloud</t>
-  </si>
-  <si>
-    <t>Jelly</t>
-  </si>
-  <si>
-    <t>[40101,1,5,30203]</t>
-  </si>
-  <si>
-    <t>BlueJelly</t>
-  </si>
-  <si>
-    <t>[40201,1,10,30304]</t>
-  </si>
-  <si>
-    <t>GrassStack</t>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>ELF</t>
+  </si>
+  <si>
+    <t>Chain</t>
+  </si>
+  <si>
+    <t>CHAIN</t>
   </si>
   <si>
     <t>Stack</t>
   </si>
   <si>
-    <t>DarkGrassStack</t>
-  </si>
-  <si>
-    <t>LockStack</t>
-  </si>
-  <si>
-    <t>ArrowJelly_Up</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>ArrowJelly_Down</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>ArrowJelly_Left</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>ArrowJelly_Right</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>ArrowJelly_All</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>ArrowJelly_None</t>
-  </si>
-  <si>
-    <t>[6]</t>
-  </si>
-  <si>
-    <t>SurfaceJelly_Normal</t>
-  </si>
-  <si>
-    <t>[7]</t>
-  </si>
-  <si>
-    <t>SurfaceJelly_Broken</t>
-  </si>
-  <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Cuteman</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>Fireman</t>
-  </si>
-  <si>
-    <t>Hornman</t>
-  </si>
-  <si>
-    <t>Horseman</t>
-  </si>
-  <si>
-    <t>Mushman</t>
-  </si>
-  <si>
-    <t>Tent_Lv1</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Tent_Lv2</t>
-  </si>
-  <si>
-    <t>ChrisMart_Lv1</t>
-  </si>
-  <si>
-    <t>ChrisMart_Lv2</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>DarkNet</t>
-  </si>
-  <si>
-    <t>Dark</t>
-  </si>
-  <si>
-    <t>[3,9,27,54,108]</t>
-  </si>
-  <si>
-    <t>FogStart</t>
-  </si>
-  <si>
-    <t>EggMachine</t>
-  </si>
-  <si>
-    <t>EggChain</t>
-  </si>
-  <si>
-    <t>EggMan</t>
+    <t>STACK</t>
+  </si>
+  <si>
+    <t>ElfCloud_11</t>
+  </si>
+  <si>
+    <t>ELFCLOUD</t>
+  </si>
+  <si>
+    <t>ElfCloud_22</t>
   </si>
 </sst>
 </file>
@@ -848,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,21 +739,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1198,16 +1063,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.44166666666667" style="2" customWidth="1"/>
-    <col min="2" max="3" width="27.8916666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.0833333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.8916666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.9166666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.8916666666667" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.89166666666667" style="2"/>
@@ -1249,511 +1115,103 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4">
-        <v>10001</v>
+        <v>3000101</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="4">
+        <v>3000101</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4">
-        <v>10002</v>
+        <v>3000201</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4">
+        <v>3000201</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7">
-        <v>10003</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="4">
+        <v>3000301</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="4">
+        <v>3000301</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7">
-        <v>10004</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="4">
+        <v>3000401</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="4">
+        <v>3000401</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="6">
-        <v>10005</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="A7" s="4">
+        <v>3000501</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3000501</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6">
-        <v>10006</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="A8" s="4">
+        <v>3000502</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3000502</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6">
-        <v>10007</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6">
-        <v>10008</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6">
-        <v>10009</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6">
-        <v>10009</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6">
-        <v>11001</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6">
-        <v>11002</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="6">
-        <v>11003</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6">
-        <v>11004</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="6">
-        <v>11005</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="6">
-        <v>11006</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6">
-        <v>12001</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6">
-        <v>12002</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6">
-        <v>10010</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4">
-        <v>20001</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4">
-        <v>20002</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4">
-        <v>20003</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4">
-        <v>20004</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4">
-        <v>20005</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5">
-        <v>30101</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="5">
-        <v>30102</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="5">
-        <v>30201</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="5">
-        <v>30202</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="6">
-        <v>90001</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="6">
-        <v>40101</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="6">
-        <v>50001</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="7">
-        <v>60001</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="7">
-        <v>60002</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="7">
-        <v>60003</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
